--- a/dashboard_data_daily_run.xlsx
+++ b/dashboard_data_daily_run.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GhoshR\Downloads\OLG\nba_dashboard\pages\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GhoshR\Downloads\OLG\nba_dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3FB0D13-AE12-4E69-A2CB-9B4EF5EFAE16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B95F493D-7B5E-45CE-8033-DAC9BB5E0CFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -170,12 +170,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -482,7 +482,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -500,7 +500,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="4">
@@ -508,7 +508,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="5">
@@ -516,19 +516,19 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="2">
-        <v>1</v>
+      <c r="B4" s="4">
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="2">
-        <v>1</v>
+      <c r="B5" s="4">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -551,19 +551,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>10</v>
       </c>
     </row>
